--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/furto/cv125122a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/furto/cv125122a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>coeficientes de variação das estimativas de distribuição das pessoas de 10 anos ou mais de idade que procuraram a polícia em decorrência do último furto que foram vítimas, no período de referência de 365 dias, mas não fizeram registro do último furto na delegacia de polícia (%)</t>
   </si>
@@ -43,18 +43,12 @@
     <t>total (1)</t>
   </si>
   <si>
-    <t>sexo</t>
-  </si>
-  <si>
     <t>homens</t>
   </si>
   <si>
     <t>mulheres</t>
   </si>
   <si>
-    <t>cor ou raça</t>
-  </si>
-  <si>
     <t>branca</t>
   </si>
   <si>
@@ -67,9 +61,6 @@
     <t>parda</t>
   </si>
   <si>
-    <t>grupos de idade</t>
-  </si>
-  <si>
     <t>10 a 24 anos</t>
   </si>
   <si>
@@ -85,9 +76,6 @@
     <t>50 anos ou mais</t>
   </si>
   <si>
-    <t>classes de rendimento mensal domiciliar per capita</t>
-  </si>
-  <si>
     <t>total (2)(3)</t>
   </si>
   <si>
@@ -104,9 +92,6 @@
   </si>
   <si>
     <t xml:space="preserve">2 salários mínimos ou mais (2) </t>
-  </si>
-  <si>
-    <t>fonte: ibge, diretoria de pesquisas, coordenação de trabalho e rendimento, pesquisa nacional por amostra de domicílios 2009.</t>
   </si>
 </sst>
 </file>
@@ -464,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -536,6 +521,27 @@
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>14.67563063656946</v>
+      </c>
+      <c r="D5">
+        <v>20.67597070068186</v>
+      </c>
+      <c r="E5">
+        <v>16.87876451358122</v>
+      </c>
+      <c r="F5">
+        <v>19.05584728636097</v>
+      </c>
+      <c r="G5">
+        <v>10.63659349166843</v>
+      </c>
+      <c r="H5">
+        <v>14.7799618072295</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
@@ -545,22 +551,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>14.67563063656946</v>
+        <v>15.49022253901829</v>
       </c>
       <c r="D6">
-        <v>20.67597070068186</v>
+        <v>21.24888382551894</v>
       </c>
       <c r="E6">
-        <v>16.87876451358122</v>
+        <v>18.0421044358645</v>
       </c>
       <c r="F6">
-        <v>19.05584728636097</v>
+        <v>18.27972210400282</v>
       </c>
       <c r="G6">
-        <v>10.63659349166843</v>
+        <v>13.07011835780263</v>
       </c>
       <c r="H6">
-        <v>14.7799618072295</v>
+        <v>13.01156197543867</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -571,28 +577,49 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>15.49022253901829</v>
+        <v>14.62440834463312</v>
       </c>
       <c r="D7">
-        <v>21.24888382551894</v>
+        <v>19.96072960543088</v>
       </c>
       <c r="E7">
-        <v>18.0421044358645</v>
+        <v>18.79549288485379</v>
       </c>
       <c r="F7">
-        <v>18.27972210400282</v>
+        <v>21.54305451416577</v>
       </c>
       <c r="G7">
-        <v>13.07011835780263</v>
+        <v>13.06083595144376</v>
       </c>
       <c r="H7">
-        <v>13.01156197543867</v>
+        <v>13.72370690039701</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>15.15496769206876</v>
+      </c>
+      <c r="D8">
+        <v>22.29247027975403</v>
+      </c>
+      <c r="E8">
+        <v>16.28410236418303</v>
+      </c>
+      <c r="F8">
+        <v>17.55154595218684</v>
+      </c>
+      <c r="G8">
+        <v>11.46070909806992</v>
+      </c>
+      <c r="H8">
+        <v>13.87825243857809</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
@@ -602,22 +629,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>14.62440834463312</v>
+        <v>56.31600060639929</v>
       </c>
       <c r="D9">
-        <v>19.96072960543088</v>
+        <v>56.44651913911378</v>
       </c>
       <c r="E9">
-        <v>18.79549288485379</v>
+        <v>51.39279304901793</v>
       </c>
       <c r="F9">
-        <v>21.54305451416577</v>
+        <v>26.59076796166191</v>
       </c>
       <c r="G9">
-        <v>13.06083595144376</v>
+        <v>24.65484712715049</v>
       </c>
       <c r="H9">
-        <v>13.72370690039701</v>
+        <v>59.57959639576723</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -628,22 +655,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>15.15496769206876</v>
+        <v>15.6306290909241</v>
       </c>
       <c r="D10">
-        <v>22.29247027975403</v>
+        <v>22.9762914858985</v>
       </c>
       <c r="E10">
-        <v>16.28410236418303</v>
+        <v>16.64036703548693</v>
       </c>
       <c r="F10">
-        <v>17.55154595218684</v>
+        <v>21.21819138268332</v>
       </c>
       <c r="G10">
-        <v>11.46070909806992</v>
+        <v>12.93897629981579</v>
       </c>
       <c r="H10">
-        <v>13.87825243857809</v>
+        <v>13.99240917601225</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -654,22 +681,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>56.31600060639929</v>
+        <v>20.38256629974401</v>
       </c>
       <c r="D11">
-        <v>56.44651913911378</v>
+        <v>32.59327328632798</v>
       </c>
       <c r="E11">
-        <v>51.39279304901793</v>
+        <v>34.15114083810845</v>
       </c>
       <c r="F11">
-        <v>26.59076796166191</v>
+        <v>29.65255921634826</v>
       </c>
       <c r="G11">
-        <v>24.65484712715049</v>
+        <v>22.55794783243245</v>
       </c>
       <c r="H11">
-        <v>59.57959639576723</v>
+        <v>25.34613573844804</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -680,28 +707,49 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>15.6306290909241</v>
+        <v>24.00329125363846</v>
       </c>
       <c r="D12">
-        <v>22.9762914858985</v>
+        <v>35.02161434845316</v>
       </c>
       <c r="E12">
-        <v>16.64036703548693</v>
+        <v>21.28075246266254</v>
       </c>
       <c r="F12">
-        <v>21.21819138268332</v>
+        <v>26.72290012025701</v>
       </c>
       <c r="G12">
-        <v>12.93897629981579</v>
+        <v>15.02958099860457</v>
       </c>
       <c r="H12">
-        <v>13.99240917601225</v>
+        <v>18.23315652482384</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>26.05635473826653</v>
+      </c>
+      <c r="D13">
+        <v>38.73475985107684</v>
+      </c>
+      <c r="E13">
+        <v>40.37501014076834</v>
+      </c>
+      <c r="F13">
+        <v>42.37637385659262</v>
+      </c>
+      <c r="G13">
+        <v>30.05703786324813</v>
+      </c>
+      <c r="H13">
+        <v>28.9122971266794</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
@@ -711,22 +759,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>20.38256629974401</v>
+        <v>27.8630368452961</v>
       </c>
       <c r="D14">
-        <v>32.59327328632798</v>
+        <v>37.56656159449818</v>
       </c>
       <c r="E14">
-        <v>34.15114083810845</v>
+        <v>28.21998139567221</v>
       </c>
       <c r="F14">
-        <v>29.65255921634826</v>
+        <v>30.26417545428787</v>
       </c>
       <c r="G14">
-        <v>22.55794783243245</v>
+        <v>16.4909051958494</v>
       </c>
       <c r="H14">
-        <v>25.34613573844804</v>
+        <v>19.87154541015746</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -737,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>24.00329125363846</v>
+        <v>20.72093664601826</v>
       </c>
       <c r="D15">
-        <v>35.02161434845316</v>
+        <v>27.11596446385406</v>
       </c>
       <c r="E15">
-        <v>21.28075246266254</v>
+        <v>22.99349984252568</v>
       </c>
       <c r="F15">
-        <v>26.72290012025701</v>
+        <v>24.86874315208107</v>
       </c>
       <c r="G15">
-        <v>15.02958099860457</v>
+        <v>16.57055010993223</v>
       </c>
       <c r="H15">
-        <v>18.23315652482384</v>
+        <v>19.75373725763835</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -763,22 +811,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>26.05635473826653</v>
+        <v>10.63617259142685</v>
       </c>
       <c r="D16">
-        <v>38.73475985107684</v>
+        <v>15.28800577612645</v>
       </c>
       <c r="E16">
-        <v>40.37501014076834</v>
+        <v>12.43029616235676</v>
       </c>
       <c r="F16">
-        <v>42.37637385659262</v>
+        <v>13.68104707747419</v>
       </c>
       <c r="G16">
-        <v>30.05703786324813</v>
+        <v>8.660917699629042</v>
       </c>
       <c r="H16">
-        <v>28.9122971266794</v>
+        <v>10.38366268870937</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -789,22 +837,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>27.8630368452961</v>
+        <v>19.0651959689481</v>
       </c>
       <c r="D17">
-        <v>37.56656159449818</v>
+        <v>60.97214541027194</v>
       </c>
       <c r="E17">
-        <v>28.21998139567221</v>
+        <v>47.10238396459305</v>
       </c>
       <c r="F17">
-        <v>30.26417545428787</v>
+        <v>39.83462084714338</v>
       </c>
       <c r="G17">
-        <v>16.4909051958494</v>
+        <v>32.63326743473833</v>
       </c>
       <c r="H17">
-        <v>19.87154541015746</v>
+        <v>40.295884614188</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -815,28 +863,49 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>20.72093664601826</v>
+        <v>25.59125867508035</v>
       </c>
       <c r="D18">
-        <v>27.11596446385406</v>
+        <v>45.57767820848012</v>
       </c>
       <c r="E18">
-        <v>22.99349984252568</v>
+        <v>36.05827848501225</v>
       </c>
       <c r="F18">
-        <v>24.86874315208107</v>
+        <v>27.88455391631292</v>
       </c>
       <c r="G18">
-        <v>16.57055010993223</v>
+        <v>17.13689200389795</v>
       </c>
       <c r="H18">
-        <v>19.75373725763835</v>
+        <v>28.57077661074469</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>24.17813725902285</v>
+      </c>
+      <c r="D19">
+        <v>31.97414608388797</v>
+      </c>
+      <c r="E19">
+        <v>22.13987480483198</v>
+      </c>
+      <c r="F19">
+        <v>26.15929954811049</v>
+      </c>
+      <c r="G19">
+        <v>16.74389119887406</v>
+      </c>
+      <c r="H19">
+        <v>19.03971465045294</v>
+      </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
@@ -846,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>10.63617259142685</v>
+        <v>19.95194270621711</v>
       </c>
       <c r="D20">
-        <v>15.28800577612645</v>
+        <v>30.97452902029548</v>
       </c>
       <c r="E20">
-        <v>12.43029616235676</v>
+        <v>27.47208006684827</v>
       </c>
       <c r="F20">
-        <v>13.68104707747419</v>
+        <v>30.76771139843203</v>
       </c>
       <c r="G20">
-        <v>8.660917699629042</v>
+        <v>18.38571900945168</v>
       </c>
       <c r="H20">
-        <v>10.38366268870937</v>
+        <v>15.30622018351816</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -872,131 +941,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>19.0651959689481</v>
+        <v>38.70885532328423</v>
       </c>
       <c r="D21">
-        <v>60.97214541027194</v>
+        <v>25.51665265969307</v>
       </c>
       <c r="E21">
-        <v>47.10238396459305</v>
+        <v>21.47311983075546</v>
       </c>
       <c r="F21">
-        <v>39.83462084714338</v>
+        <v>30.15686164164054</v>
       </c>
       <c r="G21">
-        <v>32.63326743473833</v>
+        <v>21.23943943550979</v>
       </c>
       <c r="H21">
-        <v>40.295884614188</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>25.59125867508035</v>
-      </c>
-      <c r="D22">
-        <v>45.57767820848012</v>
-      </c>
-      <c r="E22">
-        <v>36.05827848501225</v>
-      </c>
-      <c r="F22">
-        <v>27.88455391631292</v>
-      </c>
-      <c r="G22">
-        <v>17.13689200389795</v>
-      </c>
-      <c r="H22">
-        <v>28.57077661074469</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>24.17813725902285</v>
-      </c>
-      <c r="D23">
-        <v>31.97414608388797</v>
-      </c>
-      <c r="E23">
-        <v>22.13987480483198</v>
-      </c>
-      <c r="F23">
-        <v>26.15929954811049</v>
-      </c>
-      <c r="G23">
-        <v>16.74389119887406</v>
-      </c>
-      <c r="H23">
-        <v>19.03971465045294</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>19.95194270621711</v>
-      </c>
-      <c r="D24">
-        <v>30.97452902029548</v>
-      </c>
-      <c r="E24">
-        <v>27.47208006684827</v>
-      </c>
-      <c r="F24">
-        <v>30.76771139843203</v>
-      </c>
-      <c r="G24">
-        <v>18.38571900945168</v>
-      </c>
-      <c r="H24">
-        <v>15.30622018351816</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>38.70885532328423</v>
-      </c>
-      <c r="D25">
-        <v>25.51665265969307</v>
-      </c>
-      <c r="E25">
-        <v>21.47311983075546</v>
-      </c>
-      <c r="F25">
-        <v>30.15686164164054</v>
-      </c>
-      <c r="G25">
-        <v>21.23943943550979</v>
-      </c>
-      <c r="H25">
         <v>24.2285160714433</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
